--- a/biology/Zoologie/Icius_kulakangri/Icius_kulakangri.xlsx
+++ b/biology/Zoologie/Icius_kulakangri/Icius_kulakangri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Icius kulakangri est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Icius kulakangri est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Tibet en Chine[1],[2]. Elle se rencontre dans le xian de Lhozhag.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Tibet en Chine,. Elle se rencontre dans le xian de Lhozhag.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,92 mm de long sur 1,29 mm et l'abdomen 2,30 mm de long sur 1,52 mm et la carapace de la femelle paratype mesure 2,35 mm de long sur 1,57 mm et l'abdomen 2,50 mm de long sur 1,74 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,92 mm de long sur 1,29 mm et l'abdomen 2,30 mm de long sur 1,52 mm et la carapace de la femelle paratype mesure 2,35 mm de long sur 1,57 mm et l'abdomen 2,50 mm de long sur 1,74 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Yang et Zhang en 2024.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le Kula Kangri.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Yang &amp; Zhang, 2024 : « On eight species of Chrysillini from Xizang, China (Araneae: Salticidae: Salticinae). » Zootaxa, no 5447(2), p. 151-187.</t>
         </is>
